--- a/data/PrecisionAtK.xlsx
+++ b/data/PrecisionAtK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kvnstz/Documents/GitHub/MAT/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DC8F32-5245-CC4A-9F1B-1147A12823ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29387755-980D-1944-A32D-E0A22FA89808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4820" yWindow="24460" windowWidth="28800" windowHeight="17540" xr2:uid="{59D40F8A-C74C-8549-8C0F-053A0E3A82D5}"/>
   </bookViews>
@@ -37,24 +37,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="110">
   <si>
-    <t>Category:</t>
-  </si>
-  <si>
     <t>Music genres</t>
   </si>
   <si>
     <t>GCM</t>
   </si>
   <si>
-    <t>Degree</t>
-  </si>
-  <si>
-    <t>Eigenvector</t>
-  </si>
-  <si>
-    <t>PageRank</t>
-  </si>
-  <si>
     <t>k=1</t>
   </si>
   <si>
@@ -76,15 +64,9 @@
     <t>k=10%</t>
   </si>
   <si>
-    <t>Entries in DBp</t>
-  </si>
-  <si>
     <t>GS</t>
   </si>
   <si>
-    <t>DBp used</t>
-  </si>
-  <si>
     <t>0,8 (4)</t>
   </si>
   <si>
@@ -365,6 +347,24 @@
   </si>
   <si>
     <t>0,024 (9)</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>Cat:</t>
+  </si>
+  <si>
+    <t>DBp</t>
+  </si>
+  <si>
+    <t>eql</t>
   </si>
 </sst>
 </file>
@@ -772,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD5A042-6050-3E4D-842F-ADB36A09E9CA}">
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:J119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H120" sqref="H120"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="A111" sqref="A111:H119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -784,33 +784,33 @@
     <col min="2" max="2" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>13</v>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="B2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3">
         <v>5790</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
@@ -834,140 +834,148 @@
         <v>579</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="G6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="8" t="s">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7">
+        <f>1/3*(1+0.8+0.6)</f>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="J7">
+        <f>1/4*(0.333+0.182+0.1+0.052)</f>
+        <v>0.16675000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="B12">
         <v>19</v>
       </c>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
@@ -979,10 +987,10 @@
         <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G14" s="2">
         <v>2</v>
@@ -991,137 +999,141 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="C16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="G16" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="H16" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G17" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="J17">
+        <f>1/4*(1+1)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G19" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="B22">
         <v>9335</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B23">
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="B24" s="2">
         <v>1</v>
@@ -1145,121 +1157,121 @@
         <v>933</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="C26" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="G26" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="H26" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" t="s">
         <v>33</v>
       </c>
-      <c r="E27" t="s">
+      <c r="G29" t="s">
         <v>34</v>
       </c>
-      <c r="F27" t="s">
+      <c r="H29" t="s">
         <v>35</v>
       </c>
-      <c r="G27" t="s">
-        <v>36</v>
-      </c>
-      <c r="H27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" t="s">
-        <v>42</v>
-      </c>
-      <c r="F28" t="s">
-        <v>43</v>
-      </c>
-      <c r="G28" t="s">
-        <v>44</v>
-      </c>
-      <c r="H28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" t="s">
-        <v>39</v>
-      </c>
-      <c r="G29" t="s">
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="B32">
         <v>9065</v>
@@ -1267,7 +1279,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B33">
         <v>56</v>
@@ -1275,7 +1287,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="B34" s="2">
         <v>1</v>
@@ -1301,119 +1313,119 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="C36" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="G36" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="H36" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D37" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E37" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G37" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D38" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E38" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F38" t="s">
+        <v>48</v>
+      </c>
+      <c r="G38" t="s">
+        <v>49</v>
+      </c>
+      <c r="H38" t="s">
         <v>54</v>
-      </c>
-      <c r="G38" t="s">
-        <v>55</v>
-      </c>
-      <c r="H38" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D39" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E39" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F39" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G39" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H39" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="B42">
         <v>52</v>
@@ -1421,7 +1433,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B43">
         <v>28</v>
@@ -1429,7 +1441,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="B44" s="2">
         <v>1</v>
@@ -1441,7 +1453,7 @@
         <v>10</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F44" s="2">
         <v>1</v>
@@ -1455,119 +1467,119 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="C46" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="G46" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="H46" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D47" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E47" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F47" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G47" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H47" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E48" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F48" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H48" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D49" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E49" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F49" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G49" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H49" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="B52">
         <v>51</v>
@@ -1575,7 +1587,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B53">
         <v>29</v>
@@ -1583,7 +1595,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="B54" s="2">
         <v>1</v>
@@ -1595,7 +1607,7 @@
         <v>10</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F54" s="2">
         <v>1</v>
@@ -1609,119 +1621,119 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="C56" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="G56" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="H56" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H56" s="8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E57" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F57" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G57" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H57" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E58" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F58" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G58" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H58" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E59" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F59" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G59" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H59" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="B62">
         <v>53</v>
@@ -1729,7 +1741,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B63">
         <v>33</v>
@@ -1737,7 +1749,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="B64" s="2">
         <v>1</v>
@@ -1749,7 +1761,7 @@
         <v>10</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F64" s="2">
         <v>1</v>
@@ -1763,119 +1775,119 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="C66" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="G66" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="H66" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G66" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H66" s="8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E67" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F67" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G67" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H67" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E68" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F68" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G68" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H68" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E69" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F69" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G69" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H69" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="B72">
         <v>15</v>
@@ -1883,7 +1895,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B73">
         <v>8</v>
@@ -1891,7 +1903,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="B74" s="2">
         <v>1</v>
@@ -1903,13 +1915,13 @@
         <v>10</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H74" s="2">
         <v>5</v>
@@ -1917,119 +1929,119 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="C76" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F76" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="G76" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="H76" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F76" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G76" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H76" s="8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E77" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F77" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G77" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H77" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E78" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F78" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G78" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H78" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E79" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F79" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G79" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H79" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="B82">
         <v>3323</v>
@@ -2037,7 +2049,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B83">
         <v>50</v>
@@ -2045,7 +2057,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="B84" s="2">
         <v>1</v>
@@ -2071,119 +2083,119 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="C86" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F86" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="G86" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D86" s="8" t="s">
+      <c r="H86" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F86" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G86" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H86" s="8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E87" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F87" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G87" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H87" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G88" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H88" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E89" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F89" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G89" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H89" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="B92">
         <v>1372</v>
@@ -2191,7 +2203,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B93">
         <v>25</v>
@@ -2199,7 +2211,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="B94" s="2">
         <v>1</v>
@@ -2225,119 +2237,119 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B96" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="C96" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F96" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C96" s="8" t="s">
+      <c r="G96" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D96" s="8" t="s">
+      <c r="H96" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F96" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G96" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H96" s="8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G97" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H97" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G98" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H98" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G99" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H99" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="B102">
         <v>1941</v>
@@ -2345,7 +2357,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B103">
         <v>37</v>
@@ -2353,7 +2365,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="B104" s="2">
         <v>1</v>
@@ -2379,119 +2391,119 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B106" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B106" s="7" t="s">
+      <c r="C106" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F106" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C106" s="8" t="s">
+      <c r="G106" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D106" s="8" t="s">
+      <c r="H106" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F106" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H106" s="8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G107" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H107" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G108" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H108" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F109" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G109" t="s">
         <v>95</v>
       </c>
-      <c r="G109" t="s">
-        <v>101</v>
-      </c>
       <c r="H109" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="B112">
         <v>3687</v>
@@ -2499,7 +2511,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B113">
         <v>27</v>
@@ -2507,7 +2519,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="B114" s="2">
         <v>1</v>
@@ -2533,106 +2545,106 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B116" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B116" s="7" t="s">
+      <c r="C116" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F116" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C116" s="8" t="s">
+      <c r="G116" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D116" s="8" t="s">
+      <c r="H116" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="E116" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F116" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G116" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H116" s="8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G117" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H117" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G119" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H119" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
